--- a/ExperimentsResults.xlsx
+++ b/ExperimentsResults.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>EloPP V1, Scores 1 or 0</t>
   </si>
@@ -51,16 +51,39 @@
   </si>
   <si>
     <t>EloPP V1, Scores Logistic, Regularization = 0.25</t>
+  </si>
+  <si>
+    <t>EloPP V1, Scores Logistic, Regularization = calibrated = 0.22</t>
+  </si>
+  <si>
+    <t>TeamSeedPredictor</t>
+  </si>
+  <si>
+    <t>EloPP V1, Scores Logistic, Regularization = calibrated = 0.22, RandomSeed=421</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -73,7 +96,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,11 +105,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -109,18 +142,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -398,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,10 +478,10 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>0.57126994187589597</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.41522680074534302</v>
       </c>
     </row>
@@ -506,6 +560,30 @@
       </c>
       <c r="C9">
         <v>0.40655339765626197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.40623008569885799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0.408240672723793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.406812534700287</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentsResults.xlsx
+++ b/ExperimentsResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="27630" windowHeight="14820"/>
+    <workbookView xWindow="2112" yWindow="0" windowWidth="27636" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>EloPP V1, Scores 1 or 0</t>
   </si>
@@ -60,13 +60,16 @@
   </si>
   <si>
     <t>EloPP V1, Scores Logistic, Regularization = calibrated = 0.22, RandomSeed=421</t>
+  </si>
+  <si>
+    <t>EloPP V1, HomeAdvantage - 0.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +98,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +126,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -158,19 +173,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,18 +470,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="74.5703125" customWidth="1"/>
+    <col min="1" max="1" width="74.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +492,7 @@
         <v>0.44016511092787702</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -485,7 +503,7 @@
         <v>0.41522680074534302</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -496,7 +514,7 @@
         <v>0.478006972223675</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -507,7 +525,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -518,7 +536,7 @@
         <v>0.41522680074534302</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -529,7 +547,7 @@
         <v>0.41570841112018198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -540,7 +558,7 @@
         <v>0.41604805449363802</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -551,7 +569,7 @@
         <v>0.41081748088167003</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -562,7 +580,7 @@
         <v>0.40655339765626197</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -570,20 +588,31 @@
         <v>0.40623008569885799</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>0.408240672723793</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="3">
         <v>0.406812534700287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.40581239595836999</v>
+      </c>
+      <c r="C13">
+        <v>0.54667524152360103</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentsResults.xlsx
+++ b/ExperimentsResults.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>EloPP V1, Scores 1 or 0</t>
   </si>
@@ -63,6 +63,36 @@
   </si>
   <si>
     <t>EloPP V1, HomeAdvantage - 0.3</t>
+  </si>
+  <si>
+    <t>Elopp V1, 200 iterations, Reg=0.2256</t>
+  </si>
+  <si>
+    <t>Elopp V1, 200 iterations, Reg=0.2256, RandomSeed=421</t>
+  </si>
+  <si>
+    <t>Elopp V1, 400 iterations, Reg=0.2256</t>
+  </si>
+  <si>
+    <t>Elopp V1, 400 iterations, Reg=0.2256, RandomSeed=421</t>
+  </si>
+  <si>
+    <t>Elopp V1, 600 iterations, Reg=0.2256, RandomSeed=421</t>
+  </si>
+  <si>
+    <t>Elopp V1, 600 iterations, Reg=0.2256, RandomSeed=42</t>
+  </si>
+  <si>
+    <t>Elopp V1, 50 iterations, Reg=0.2256, RandomSeed=42, HomeAdv=0.27</t>
+  </si>
+  <si>
+    <t>Elopp V1, 600 iterations, Reg=0.2256, RandomSeed=42, HomeAdv=0.27</t>
+  </si>
+  <si>
+    <t>Elopp V1, 100 iterations, Reg=0.2256, RandomSeed=42, HomeAdv=-0.0105</t>
+  </si>
+  <si>
+    <t>Elopp V1, 600 iterations, Reg=0.2256, RandomSeed=42, HomeAdv=-0.0105</t>
   </si>
 </sst>
 </file>
@@ -470,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C13"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,6 +614,9 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>0.54894211041483298</v>
+      </c>
       <c r="C10" s="1">
         <v>0.40623008569885799</v>
       </c>
@@ -592,6 +625,9 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>0.55229771608690903</v>
+      </c>
       <c r="C11" s="4">
         <v>0.408240672723793</v>
       </c>
@@ -600,6 +636,9 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>0.55010864533221904</v>
+      </c>
       <c r="C12" s="3">
         <v>0.406812534700287</v>
       </c>
@@ -609,10 +648,120 @@
         <v>12</v>
       </c>
       <c r="B13">
+        <v>0.54667524152360103</v>
+      </c>
+      <c r="C13">
         <v>0.40581239595836999</v>
       </c>
-      <c r="C13">
-        <v>0.54667524152360103</v>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.548950207783092</v>
+      </c>
+      <c r="C14">
+        <v>0.406200483828216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.54946373351655198</v>
+      </c>
+      <c r="C15">
+        <v>0.40645411249053998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.54991849851126096</v>
+      </c>
+      <c r="C16">
+        <v>0.40667455430965399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.54979899562884904</v>
+      </c>
+      <c r="C17">
+        <v>0.406682990358605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.54974746327577895</v>
+      </c>
+      <c r="C18">
+        <v>0.40660637354100199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.55000381802544596</v>
+      </c>
+      <c r="C19">
+        <v>0.40675764731547498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.54927045457164503</v>
+      </c>
+      <c r="C20">
+        <v>0.406341446076118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.55033822326860404</v>
+      </c>
+      <c r="C21">
+        <v>0.40681785132455101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.54932030697169598</v>
+      </c>
+      <c r="C22">
+        <v>0.406441315044622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.54984822782609899</v>
+      </c>
+      <c r="C23">
+        <v>0.40670593687463802</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentsResults.xlsx
+++ b/ExperimentsResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2112" yWindow="0" windowWidth="27636" windowHeight="14820"/>
+    <workbookView xWindow="3048" yWindow="0" windowWidth="25524" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>EloPP V1, Scores 1 or 0</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>Elopp V1, 600 iterations, Reg=0.2256, RandomSeed=42, HomeAdv=-0.0105</t>
+  </si>
+  <si>
+    <t>Elopp V1, 600 iterations, Reg=0.2256, RandomSeed=42, HomeAdv=8.4%</t>
+  </si>
+  <si>
+    <t>Elopp V1, 600 iterations, Reg=0.2256, RandomSeed=42, HomeAdv=4.4%</t>
+  </si>
+  <si>
+    <t>Elopp V1, 600 iterations, Reg=0.2256, RandomSeed=42, HomeAdv=2.4%</t>
   </si>
 </sst>
 </file>
@@ -500,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,6 +773,39 @@
         <v>0.40670593687463802</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.55457067195335796</v>
+      </c>
+      <c r="C24">
+        <v>0.40858923851807999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.550589996042256</v>
+      </c>
+      <c r="C25">
+        <v>0.40679825478346499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.55046910725843501</v>
+      </c>
+      <c r="C26">
+        <v>0.40687200309884403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExperimentsResults.xlsx
+++ b/ExperimentsResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3048" yWindow="0" windowWidth="25524" windowHeight="14820"/>
+    <workbookView xWindow="3984" yWindow="0" windowWidth="25524" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>EloPP V1, Scores 1 or 0</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Elopp V1, 600 iterations, Reg=0.2256, RandomSeed=42, HomeAdv=2.4%</t>
+  </si>
+  <si>
+    <t>Elopp V1, 100 iterations, Reg=0.2256, RandomSeed=42</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
@@ -806,6 +809,17 @@
         <v>0.40687200309884403</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.54947503386401297</v>
+      </c>
+      <c r="C27">
+        <v>0.406492100155672</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExperimentsResults.xlsx
+++ b/ExperimentsResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3984" yWindow="0" windowWidth="25524" windowHeight="14820"/>
+    <workbookView xWindow="5856" yWindow="0" windowWidth="25524" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>EloPP V1, Scores 1 or 0</t>
   </si>
@@ -105,6 +105,24 @@
   </si>
   <si>
     <t>Elopp V1, 100 iterations, Reg=0.2256, RandomSeed=42</t>
+  </si>
+  <si>
+    <t>First working SfLearner</t>
+  </si>
+  <si>
+    <t>Elopp V1, 400 iterations, Reg=0.2256, RandomSeed=42, Clip = 0.1</t>
+  </si>
+  <si>
+    <t>Elopp V1, 400 iterations, Reg=0.2256, RandomSeed=42, Clip = 0.2</t>
+  </si>
+  <si>
+    <t>Elopp V1, 400 iterations, Reg=0.2256, RandomSeed=42, Clip = 0.0</t>
+  </si>
+  <si>
+    <t>Elopp V1, 400 iterations, Reg=0.2256, RandomSeed=42, Clip = 0.01</t>
+  </si>
+  <si>
+    <t>Elopp V1, 400 iterations, Reg=0.2256, RandomSeed=42, Clip = 0.001</t>
   </si>
 </sst>
 </file>
@@ -512,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,6 +838,72 @@
         <v>0.406492100155672</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.69314718055994495</v>
+      </c>
+      <c r="C28">
+        <v>0.478006972223675</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.55286368912719197</v>
+      </c>
+      <c r="C29">
+        <v>0.40717842602964299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.56415656654296997</v>
+      </c>
+      <c r="C30">
+        <v>0.41083057610912799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.54991849851126096</v>
+      </c>
+      <c r="C31">
+        <v>0.40667455430965399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.54991930134602196</v>
+      </c>
+      <c r="C32">
+        <v>0.40667457326850998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0.54991849851126096</v>
+      </c>
+      <c r="C33">
+        <v>0.40667455430965399</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
